--- a/Instances/K0011131_NonStationary_b4_fe25_en_rk75_ll0_l40_HTrue_c0.xlsx
+++ b/Instances/K0011131_NonStationary_b4_fe25_en_rk75_ll0_l40_HTrue_c0.xlsx
@@ -1004,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>13.44744157791138</v>
+        <v>13.11491606785701</v>
       </c>
       <c r="I2" t="n">
         <v>400</v>
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.375</v>
+        <v>6.125</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.71875</v>
+        <v>10.609375</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.7421875</v>
+        <v>15.03125</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17.431640625</v>
+        <v>12.98828125</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17.92333984375</v>
+        <v>17.351318359375</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.728515625</v>
+        <v>17.46795654296875</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.96267700195312</v>
+        <v>24.04582214355469</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>18.67265701293945</v>
+        <v>22.04723358154297</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22.19796752929688</v>
+        <v>23.12288284301758</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24.06400537490845</v>
+        <v>21.70478916168213</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
